--- a/Code/Results/Cases/Case_4_199/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_199/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.72612398915907</v>
+        <v>11.85291485710751</v>
       </c>
       <c r="C2">
-        <v>7.276316284625649</v>
+        <v>7.51479035970834</v>
       </c>
       <c r="D2">
-        <v>7.008682520507172</v>
+        <v>6.017379101360685</v>
       </c>
       <c r="E2">
-        <v>7.456753819812104</v>
+        <v>12.03318672523925</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.11972703685376</v>
+        <v>3.687765245645171</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>19.01934323501196</v>
+        <v>28.39181915427494</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.02869800568624</v>
+        <v>9.52830939865915</v>
       </c>
       <c r="L2">
-        <v>6.435212672688293</v>
+        <v>10.27417356110174</v>
       </c>
       <c r="M2">
-        <v>9.468858696694273</v>
+        <v>14.11134073021696</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>19.9560942858506</v>
+        <v>29.01064532525503</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.86958764335592</v>
+        <v>11.65109462683541</v>
       </c>
       <c r="C3">
-        <v>7.088600201344494</v>
+        <v>7.447678406659391</v>
       </c>
       <c r="D3">
-        <v>6.52432786888606</v>
+        <v>5.90412559057639</v>
       </c>
       <c r="E3">
-        <v>7.46953927591837</v>
+        <v>12.05778784699759</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.125230009642622</v>
+        <v>3.689822905294766</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>19.09063656382287</v>
+        <v>28.4710514314611</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.40036621082838</v>
+        <v>9.380559506087367</v>
       </c>
       <c r="L3">
-        <v>6.356192199685555</v>
+        <v>10.28290663809002</v>
       </c>
       <c r="M3">
-        <v>9.155460826545642</v>
+        <v>14.08706176307511</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>19.89973411777605</v>
+        <v>29.07464507363334</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.31288934574984</v>
+        <v>11.52779534987723</v>
       </c>
       <c r="C4">
-        <v>6.970456788383079</v>
+        <v>7.405432920558257</v>
       </c>
       <c r="D4">
-        <v>6.234458152351699</v>
+        <v>5.835244950886624</v>
       </c>
       <c r="E4">
-        <v>7.480508237185099</v>
+        <v>12.07430536930462</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.128714005333748</v>
+        <v>3.691153742538503</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>19.14672311434216</v>
+        <v>28.52442035160626</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.99482630336008</v>
+        <v>9.290463980784143</v>
       </c>
       <c r="L4">
-        <v>6.310176717581275</v>
+        <v>10.2896803104525</v>
       </c>
       <c r="M4">
-        <v>8.961558011943151</v>
+        <v>14.07427696697764</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>19.87939138093449</v>
+        <v>29.119349148228</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.07824230421667</v>
+        <v>11.47777308460795</v>
       </c>
       <c r="C5">
-        <v>6.921614163206923</v>
+        <v>7.387962418062955</v>
       </c>
       <c r="D5">
-        <v>6.123079917302662</v>
+        <v>5.807383411087869</v>
       </c>
       <c r="E5">
-        <v>7.485746001662061</v>
+        <v>12.08139186687419</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.130160838122067</v>
+        <v>3.691713078001477</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>19.17256112242552</v>
+        <v>28.5473543697458</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.824642972353415</v>
+        <v>9.253952585677039</v>
       </c>
       <c r="L5">
-        <v>6.292060410194594</v>
+        <v>10.29279603694826</v>
       </c>
       <c r="M5">
-        <v>8.882283862554029</v>
+        <v>14.06960497552795</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>19.87457073832106</v>
+        <v>29.13892426729926</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.0388075975065</v>
+        <v>11.46948238714724</v>
       </c>
       <c r="C6">
-        <v>6.913462563364571</v>
+        <v>7.385046222866262</v>
       </c>
       <c r="D6">
-        <v>6.104439732863281</v>
+        <v>5.802770826169749</v>
       </c>
       <c r="E6">
-        <v>7.486661627543395</v>
+        <v>12.0825900536217</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.1304027370196</v>
+        <v>3.691806984078969</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>19.17702836423938</v>
+        <v>28.55123412851331</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.796088377109319</v>
+        <v>9.247903532083081</v>
       </c>
       <c r="L6">
-        <v>6.289090733224452</v>
+        <v>10.29333487838195</v>
       </c>
       <c r="M6">
-        <v>8.869108409252851</v>
+        <v>14.06886179896628</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>19.87397633671614</v>
+        <v>29.14225664848855</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.3097564092796</v>
+        <v>11.52711973889861</v>
       </c>
       <c r="C7">
-        <v>6.969800868671627</v>
+        <v>7.405198332233693</v>
       </c>
       <c r="D7">
-        <v>6.23296591934536</v>
+        <v>5.834868302340922</v>
       </c>
       <c r="E7">
-        <v>7.480575788119169</v>
+        <v>12.07439950055573</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.128733407374054</v>
+        <v>3.691161216993969</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>19.14705964743942</v>
+        <v>28.52472484828623</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.99255101622011</v>
+        <v>9.289970690892046</v>
       </c>
       <c r="L7">
-        <v>6.309929815261402</v>
+        <v>10.28972089066849</v>
       </c>
       <c r="M7">
-        <v>8.960489777685202</v>
+        <v>14.07421177560505</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>19.87931247785353</v>
+        <v>29.11960765011191</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.43714979370495</v>
+        <v>11.78323904779663</v>
       </c>
       <c r="C8">
-        <v>7.212205958565986</v>
+        <v>7.491869264532385</v>
       </c>
       <c r="D8">
-        <v>6.845126807715708</v>
+        <v>5.978218273381128</v>
       </c>
       <c r="E8">
-        <v>7.460505055252946</v>
+        <v>12.04137626316705</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.121603030509291</v>
+        <v>3.688460764816673</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>19.04130038113259</v>
+        <v>28.41815814773322</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.81616690368372</v>
+        <v>9.477263667470597</v>
       </c>
       <c r="L8">
-        <v>6.407450701125433</v>
+        <v>10.27689205733681</v>
       </c>
       <c r="M8">
-        <v>9.361170820777899</v>
+        <v>14.10253140293615</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>19.93363120128521</v>
+        <v>29.0315888436695</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.40595029449471</v>
+        <v>12.28747488033951</v>
       </c>
       <c r="C9">
-        <v>7.66363882646998</v>
+        <v>7.65333441360648</v>
       </c>
       <c r="D9">
-        <v>7.962510639160279</v>
+        <v>6.262695814785061</v>
       </c>
       <c r="E9">
-        <v>7.44663658192387</v>
+        <v>11.98780930510236</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.108424322730934</v>
+        <v>3.683697731001372</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>18.93685534907464</v>
+        <v>28.24668134155734</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.27354613709508</v>
+        <v>9.847463500913859</v>
       </c>
       <c r="L9">
-        <v>6.618249363196631</v>
+        <v>10.2629126494304</v>
       </c>
       <c r="M9">
-        <v>10.13067711445311</v>
+        <v>14.17471113261786</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.1584491327644</v>
+        <v>28.90197920262235</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.70807260702584</v>
+        <v>12.65532275017927</v>
       </c>
       <c r="C10">
-        <v>7.979585948689638</v>
+        <v>7.766451157741251</v>
       </c>
       <c r="D10">
-        <v>8.705645328258937</v>
+        <v>6.471339669379189</v>
       </c>
       <c r="E10">
-        <v>7.453028002815863</v>
+        <v>11.95525615548866</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.099187194497919</v>
+        <v>3.680519555264275</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>18.93033242284405</v>
+        <v>28.14362393081944</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.24755282303275</v>
+        <v>10.11855672173898</v>
       </c>
       <c r="L10">
-        <v>6.78460305056374</v>
+        <v>10.25942421365668</v>
       </c>
       <c r="M10">
-        <v>10.68080767324803</v>
+        <v>14.23760591138505</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.40258964957842</v>
+        <v>28.83307364015824</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.2698145589173</v>
+        <v>12.82132624807686</v>
       </c>
       <c r="C11">
-        <v>8.119733354760957</v>
+        <v>7.816646144200814</v>
       </c>
       <c r="D11">
-        <v>9.027303861019963</v>
+        <v>6.565692521582239</v>
       </c>
       <c r="E11">
-        <v>7.459765194082346</v>
+        <v>11.94191953679303</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.095071091342835</v>
+        <v>3.679142742740411</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>18.94428337620377</v>
+        <v>28.10173183401605</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.6697324643513</v>
+        <v>10.24114446920346</v>
       </c>
       <c r="L11">
-        <v>6.862672876057342</v>
+        <v>10.25930167117705</v>
       </c>
       <c r="M11">
-        <v>10.92685353479219</v>
+        <v>14.26829319093997</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.53221512168536</v>
+        <v>28.80746056776778</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.47819172468872</v>
+        <v>12.8839347812833</v>
       </c>
       <c r="C12">
-        <v>8.172278867381337</v>
+        <v>7.835466522965824</v>
       </c>
       <c r="D12">
-        <v>9.14679045939269</v>
+        <v>6.601302703922871</v>
       </c>
       <c r="E12">
-        <v>7.462886310801077</v>
+        <v>11.93708060232623</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.093523853463201</v>
+        <v>3.678631240126395</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>18.95214138555531</v>
+        <v>28.08658684824587</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.826611643071</v>
+        <v>10.28741611296889</v>
       </c>
       <c r="L12">
-        <v>6.892571513781644</v>
+        <v>10.25946499383342</v>
       </c>
       <c r="M12">
-        <v>11.01935658623817</v>
+        <v>14.28020597454901</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>20.58408235234595</v>
+        <v>28.79858703598794</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.43350615292921</v>
+        <v>12.87046313626236</v>
       </c>
       <c r="C13">
-        <v>8.160985745414125</v>
+        <v>7.831421642528241</v>
       </c>
       <c r="D13">
-        <v>9.121159353868858</v>
+        <v>6.59363930933287</v>
       </c>
       <c r="E13">
-        <v>7.462188466991744</v>
+        <v>11.9381133585723</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.093856585189117</v>
+        <v>3.678740963336358</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>18.95033219195201</v>
+        <v>28.08981661179136</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.79295763085504</v>
+        <v>10.27745802753521</v>
       </c>
       <c r="L13">
-        <v>6.886117534113375</v>
+        <v>10.25942050605775</v>
       </c>
       <c r="M13">
-        <v>10.99946506422365</v>
+        <v>14.2776274535066</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>20.57278638731195</v>
+        <v>28.80046137418482</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.28704456051483</v>
+        <v>12.82648251180933</v>
       </c>
       <c r="C14">
-        <v>8.124066881641822</v>
+        <v>7.818198296247303</v>
       </c>
       <c r="D14">
-        <v>9.037180330250752</v>
+        <v>6.568624795826768</v>
       </c>
       <c r="E14">
-        <v>7.460010437581407</v>
+        <v>11.94151720074471</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.094943575308347</v>
+        <v>3.67910046365596</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>18.94487742330313</v>
+        <v>28.10047143765797</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.68269884729378</v>
+        <v>10.24495451149713</v>
       </c>
       <c r="L14">
-        <v>6.865125985469072</v>
+        <v>10.25931090972747</v>
       </c>
       <c r="M14">
-        <v>10.93447755554763</v>
+        <v>14.26926744473804</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>20.53642590747581</v>
+        <v>28.80671398465523</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.19676886527368</v>
+        <v>12.79950832562919</v>
       </c>
       <c r="C15">
-        <v>8.101384348585263</v>
+        <v>7.810074042517864</v>
       </c>
       <c r="D15">
-        <v>8.98544001223169</v>
+        <v>6.55328604835088</v>
       </c>
       <c r="E15">
-        <v>7.458751123795825</v>
+        <v>11.9436296673003</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.095610849946267</v>
+        <v>3.679321951423141</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>18.9418758551476</v>
+        <v>28.10709144889467</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.61477317802188</v>
+        <v>10.22502439703316</v>
       </c>
       <c r="L15">
-        <v>6.852311459399788</v>
+        <v>10.25927106493503</v>
       </c>
       <c r="M15">
-        <v>10.89458197153254</v>
+        <v>14.26418455371543</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>20.5145194808577</v>
+        <v>28.81065143787815</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.67075059993409</v>
+        <v>12.64444187339383</v>
       </c>
       <c r="C16">
-        <v>7.970353984615877</v>
+        <v>7.763144891859598</v>
       </c>
       <c r="D16">
-        <v>8.684297563727849</v>
+        <v>6.465158868069519</v>
       </c>
       <c r="E16">
-        <v>7.452666406129743</v>
+        <v>11.95615732814931</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.099457843645738</v>
+        <v>3.680610916538254</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>18.92977321357671</v>
+        <v>28.14646217784228</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.21954288380639</v>
+        <v>10.11052674338369</v>
       </c>
       <c r="L16">
-        <v>6.779548406578743</v>
+        <v>10.25946161827217</v>
       </c>
       <c r="M16">
-        <v>10.66463758368039</v>
+        <v>14.23564166533658</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.39450145598229</v>
+        <v>28.83486297946318</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.34025855637836</v>
+        <v>12.54892751895391</v>
       </c>
       <c r="C17">
-        <v>7.889045854066669</v>
+        <v>7.73402784442538</v>
       </c>
       <c r="D17">
-        <v>8.495384237907306</v>
+        <v>6.410924102892334</v>
       </c>
       <c r="E17">
-        <v>7.449928038923678</v>
+        <v>11.96421943000912</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.101839223447537</v>
+        <v>3.681419280842821</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>18.9267818987419</v>
+        <v>28.17189358035128</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.97173668467074</v>
+        <v>10.04006622255331</v>
       </c>
       <c r="L17">
-        <v>6.735517396269451</v>
+        <v>10.25995299812351</v>
       </c>
       <c r="M17">
-        <v>10.52244700796538</v>
+        <v>14.21865884370413</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>20.3257090855782</v>
+        <v>28.85118516383305</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.1472844612097</v>
+        <v>12.4938683065208</v>
       </c>
       <c r="C18">
-        <v>7.841943160797725</v>
+        <v>7.717162007073703</v>
       </c>
       <c r="D18">
-        <v>8.385180461758464</v>
+        <v>6.379679157070625</v>
       </c>
       <c r="E18">
-        <v>7.448712303535688</v>
+        <v>11.96899510632954</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.103217074827356</v>
+        <v>3.681890723957734</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>18.92664506870046</v>
+        <v>28.18699059355144</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.8272364830377</v>
+        <v>9.999472652214122</v>
       </c>
       <c r="L18">
-        <v>6.710417852451457</v>
+        <v>10.26037351544443</v>
       </c>
       <c r="M18">
-        <v>10.44026950383706</v>
+        <v>14.20908659038579</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>20.28788243930927</v>
+        <v>28.86111275358563</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.08144972174012</v>
+        <v>12.47520719922969</v>
       </c>
       <c r="C19">
-        <v>7.825937602247935</v>
+        <v>7.711431355513651</v>
       </c>
       <c r="D19">
-        <v>8.347600685489475</v>
+        <v>6.369092682958204</v>
       </c>
       <c r="E19">
-        <v>7.448361808276611</v>
+        <v>11.97063587693199</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.103685017320377</v>
+        <v>3.682051463243476</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>18.92686646510236</v>
+        <v>28.19218278978325</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.77797276000631</v>
+        <v>9.985718311021122</v>
       </c>
       <c r="L19">
-        <v>6.701958664540782</v>
+        <v>10.26053960238884</v>
       </c>
       <c r="M19">
-        <v>10.41238017951074</v>
+        <v>14.205879410435</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>20.27537055975747</v>
+        <v>28.86456668214426</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.37573804966566</v>
+        <v>12.5591082560788</v>
       </c>
       <c r="C20">
-        <v>7.897736148636795</v>
+        <v>7.737139709070622</v>
       </c>
       <c r="D20">
-        <v>8.515654091051012</v>
+        <v>6.416703003268691</v>
       </c>
       <c r="E20">
-        <v>7.450182218749111</v>
+        <v>11.96334686641756</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.101584884975805</v>
+        <v>3.681332557404247</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>18.92693540372374</v>
+        <v>28.16913775928593</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.99831974104118</v>
+        <v>10.04757407738669</v>
       </c>
       <c r="L20">
-        <v>6.740181256800265</v>
+        <v>10.2598864248276</v>
       </c>
       <c r="M20">
-        <v>10.53762463034626</v>
+        <v>14.2204464729186</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.33285116029614</v>
+        <v>28.84939179312794</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.33018125695649</v>
+        <v>12.83940804243884</v>
       </c>
       <c r="C21">
-        <v>8.134925170306898</v>
+        <v>7.82208744464635</v>
       </c>
       <c r="D21">
-        <v>9.061909606695938</v>
+        <v>6.57597569781974</v>
       </c>
       <c r="E21">
-        <v>7.460634556234059</v>
+        <v>11.94051167627855</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.094623997041385</v>
+        <v>3.678994602317318</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>18.94640858261356</v>
+        <v>28.09732234409107</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.71516555251599</v>
+        <v>10.25450598727996</v>
       </c>
       <c r="L21">
-        <v>6.871282682320174</v>
+        <v>10.25933741604684</v>
       </c>
       <c r="M21">
-        <v>10.95358457931169</v>
+        <v>14.2717151046585</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.5470295136728</v>
+        <v>28.8048550264049</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.92868323747632</v>
+        <v>13.02109662157467</v>
       </c>
       <c r="C22">
-        <v>8.286877768644825</v>
+        <v>7.876510946251816</v>
       </c>
       <c r="D22">
-        <v>9.405424625183596</v>
+        <v>6.679358348161095</v>
       </c>
       <c r="E22">
-        <v>7.470796692513909</v>
+        <v>11.92681933535089</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.090140871983656</v>
+        <v>3.677524099884735</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>18.97421352298328</v>
+        <v>28.05457612074458</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.16624285735233</v>
+        <v>10.38885632560118</v>
       </c>
       <c r="L22">
-        <v>6.958915578985208</v>
+        <v>10.26020060613936</v>
       </c>
       <c r="M22">
-        <v>11.27978471192535</v>
+        <v>14.30692197929633</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>20.70326669680923</v>
+        <v>28.78056021911172</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.61154502038961</v>
+        <v>12.9242832440167</v>
       </c>
       <c r="C23">
-        <v>8.206060798452585</v>
+        <v>7.847566159368147</v>
       </c>
       <c r="D23">
-        <v>9.223305494593042</v>
+        <v>6.62425840985668</v>
       </c>
       <c r="E23">
-        <v>7.465061749574507</v>
+        <v>11.93401459483323</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.092527859526742</v>
+        <v>3.678303690894126</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>18.95794593532759</v>
+        <v>28.07700688597869</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.92708206450573</v>
+        <v>10.31724672695394</v>
       </c>
       <c r="L23">
-        <v>6.9119686306111</v>
+        <v>10.25962839282678</v>
       </c>
       <c r="M23">
-        <v>11.08194093250776</v>
+        <v>14.28797805377264</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>20.61835603180675</v>
+        <v>28.79308611083156</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.35970702542338</v>
+        <v>12.55450599714422</v>
       </c>
       <c r="C24">
-        <v>7.893808379346355</v>
+        <v>7.735733227291589</v>
       </c>
       <c r="D24">
-        <v>8.506495061438404</v>
+        <v>6.414090560857204</v>
       </c>
       <c r="E24">
-        <v>7.450066188574628</v>
+        <v>11.96374091423681</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.101699844031216</v>
+        <v>3.681371744185666</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>18.92686108441958</v>
+        <v>28.17038218283504</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.98630787497415</v>
+        <v>10.04418003721098</v>
       </c>
       <c r="L24">
-        <v>6.738072056730031</v>
+        <v>10.25991609264575</v>
       </c>
       <c r="M24">
-        <v>10.53076416245139</v>
+        <v>14.2196376890883</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.32961686999593</v>
+        <v>28.85020088234366</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.89892421570699</v>
+        <v>12.1512548723467</v>
       </c>
       <c r="C25">
-        <v>7.544205216651989</v>
+        <v>7.610598136257184</v>
       </c>
       <c r="D25">
-        <v>7.674051042000263</v>
+        <v>6.185630404282366</v>
       </c>
       <c r="E25">
-        <v>7.447552948368913</v>
+        <v>12.00110450020864</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.111907917535382</v>
+        <v>3.684929601120964</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>18.95333323478934</v>
+        <v>28.28904873106398</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.89627181826009</v>
+        <v>9.747281663382937</v>
       </c>
       <c r="L25">
-        <v>6.559172332902653</v>
+        <v>10.26550079800168</v>
       </c>
       <c r="M25">
-        <v>9.92483277753254</v>
+        <v>14.15343048193831</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.08424785015134</v>
+        <v>28.93242717970074</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_199/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_199/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.85291485710751</v>
+        <v>12.72612398915911</v>
       </c>
       <c r="C2">
-        <v>7.51479035970834</v>
+        <v>7.276316284625632</v>
       </c>
       <c r="D2">
-        <v>6.017379101360685</v>
+        <v>7.008682520507145</v>
       </c>
       <c r="E2">
-        <v>12.03318672523925</v>
+        <v>7.456753819812109</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.687765245645171</v>
+        <v>2.119727036853759</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>28.39181915427494</v>
+        <v>19.019343235012</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.52830939865915</v>
+        <v>11.02869800568626</v>
       </c>
       <c r="L2">
-        <v>10.27417356110174</v>
+        <v>6.43521267268829</v>
       </c>
       <c r="M2">
-        <v>14.11134073021696</v>
+        <v>9.468858696694262</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>29.01064532525503</v>
+        <v>19.95609428585067</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.65109462683541</v>
+        <v>11.86958764335595</v>
       </c>
       <c r="C3">
-        <v>7.447678406659391</v>
+        <v>7.088600201344223</v>
       </c>
       <c r="D3">
-        <v>5.90412559057639</v>
+        <v>6.52432786888602</v>
       </c>
       <c r="E3">
-        <v>12.05778784699759</v>
+        <v>7.469539275918316</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.689822905294766</v>
+        <v>2.125230009642488</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>28.4710514314611</v>
+        <v>19.09063656382301</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.380559506087367</v>
+        <v>10.40036621082839</v>
       </c>
       <c r="L3">
-        <v>10.28290663809002</v>
+        <v>6.356192199685512</v>
       </c>
       <c r="M3">
-        <v>14.08706176307511</v>
+        <v>9.155460826545605</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>29.07464507363334</v>
+        <v>19.89973411777617</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.52779534987723</v>
+        <v>11.31288934574983</v>
       </c>
       <c r="C4">
-        <v>7.405432920558257</v>
+        <v>6.970456788382961</v>
       </c>
       <c r="D4">
-        <v>5.835244950886624</v>
+        <v>6.234458152351721</v>
       </c>
       <c r="E4">
-        <v>12.07430536930462</v>
+        <v>7.480508237184978</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.691153742538503</v>
+        <v>2.128714005333616</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>28.52442035160626</v>
+        <v>19.1467231143421</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.290463980784143</v>
+        <v>9.994826303359995</v>
       </c>
       <c r="L4">
-        <v>10.2896803104525</v>
+        <v>6.310176717581297</v>
       </c>
       <c r="M4">
-        <v>14.07427696697764</v>
+        <v>8.961558011943147</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>29.119349148228</v>
+        <v>19.87939138093449</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.47777308460795</v>
+        <v>11.07824230421667</v>
       </c>
       <c r="C5">
-        <v>7.387962418062955</v>
+        <v>6.921614163207024</v>
       </c>
       <c r="D5">
-        <v>5.807383411087869</v>
+        <v>6.123079917302669</v>
       </c>
       <c r="E5">
-        <v>12.08139186687419</v>
+        <v>7.485746001662053</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.691713078001477</v>
+        <v>2.130160838122066</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>28.5473543697458</v>
+        <v>19.17256112242537</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.253952585677039</v>
+        <v>9.824642972353493</v>
       </c>
       <c r="L5">
-        <v>10.29279603694826</v>
+        <v>6.292060410194527</v>
       </c>
       <c r="M5">
-        <v>14.06960497552795</v>
+        <v>8.882283862553985</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>29.13892426729926</v>
+        <v>19.87457073832087</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.46948238714724</v>
+        <v>11.03880759750649</v>
       </c>
       <c r="C6">
-        <v>7.385046222866262</v>
+        <v>6.913462563364571</v>
       </c>
       <c r="D6">
-        <v>5.802770826169749</v>
+        <v>6.10443973286329</v>
       </c>
       <c r="E6">
-        <v>12.0825900536217</v>
+        <v>7.48666162754328</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.691806984078969</v>
+        <v>2.130402737019332</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>28.55123412851331</v>
+        <v>19.17702836423953</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.247903532083081</v>
+        <v>9.796088377109323</v>
       </c>
       <c r="L6">
-        <v>10.29333487838195</v>
+        <v>6.289090733224382</v>
       </c>
       <c r="M6">
-        <v>14.06886179896628</v>
+        <v>8.869108409252814</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>29.14225664848855</v>
+        <v>19.87397633671629</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.52711973889861</v>
+        <v>11.30975640927966</v>
       </c>
       <c r="C7">
-        <v>7.405198332233693</v>
+        <v>6.969800868671477</v>
       </c>
       <c r="D7">
-        <v>5.834868302340922</v>
+        <v>6.232965919345357</v>
       </c>
       <c r="E7">
-        <v>12.07439950055573</v>
+        <v>7.480575788119303</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.691161216993969</v>
+        <v>2.128733407374323</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>28.52472484828623</v>
+        <v>19.14705964743925</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.289970690892046</v>
+        <v>9.992551016220084</v>
       </c>
       <c r="L7">
-        <v>10.28972089066849</v>
+        <v>6.309929815261486</v>
       </c>
       <c r="M7">
-        <v>14.07421177560505</v>
+        <v>8.960489777685229</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>29.11960765011191</v>
+        <v>19.87931247785339</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.78323904779663</v>
+        <v>12.43714979370488</v>
       </c>
       <c r="C8">
-        <v>7.491869264532385</v>
+        <v>7.212205958565879</v>
       </c>
       <c r="D8">
-        <v>5.978218273381128</v>
+        <v>6.845126807715686</v>
       </c>
       <c r="E8">
-        <v>12.04137626316705</v>
+        <v>7.460505055252879</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.688460764816673</v>
+        <v>2.12160303050929</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>28.41815814773322</v>
+        <v>19.04130038113252</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.477263667470597</v>
+        <v>10.81616690368367</v>
       </c>
       <c r="L8">
-        <v>10.27689205733681</v>
+        <v>6.407450701125371</v>
       </c>
       <c r="M8">
-        <v>14.10253140293615</v>
+        <v>9.361170820777891</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>29.0315888436695</v>
+        <v>19.93363120128512</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.28747488033951</v>
+        <v>14.40595029449473</v>
       </c>
       <c r="C9">
-        <v>7.65333441360648</v>
+        <v>7.66363882647032</v>
       </c>
       <c r="D9">
-        <v>6.262695814785061</v>
+        <v>7.962510639160188</v>
       </c>
       <c r="E9">
-        <v>11.98780930510236</v>
+        <v>7.446636581923931</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.683697731001372</v>
+        <v>2.108424322730934</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>28.24668134155734</v>
+        <v>18.93685534907456</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.847463500913859</v>
+        <v>12.27354613709516</v>
       </c>
       <c r="L9">
-        <v>10.2629126494304</v>
+        <v>6.618249363196613</v>
       </c>
       <c r="M9">
-        <v>14.17471113261786</v>
+        <v>10.1306771144531</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>28.90197920262235</v>
+        <v>20.15844913276428</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.65532275017927</v>
+        <v>15.7080726070258</v>
       </c>
       <c r="C10">
-        <v>7.766451157741251</v>
+        <v>7.979585948689722</v>
       </c>
       <c r="D10">
-        <v>6.471339669379189</v>
+        <v>8.705645328258912</v>
       </c>
       <c r="E10">
-        <v>11.95525615548866</v>
+        <v>7.453028002815914</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.680519555264275</v>
+        <v>2.09918719449792</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>28.14362393081944</v>
+        <v>18.93033242284413</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.11855672173898</v>
+        <v>13.2475528230327</v>
       </c>
       <c r="L10">
-        <v>10.25942421365668</v>
+        <v>6.78460305056376</v>
       </c>
       <c r="M10">
-        <v>14.23760591138505</v>
+        <v>10.68080767324806</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>28.83307364015824</v>
+        <v>20.40258964957851</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.82132624807686</v>
+        <v>16.26981455891734</v>
       </c>
       <c r="C11">
-        <v>7.816646144200814</v>
+        <v>8.11973335476082</v>
       </c>
       <c r="D11">
-        <v>6.565692521582239</v>
+        <v>9.027303861020016</v>
       </c>
       <c r="E11">
-        <v>11.94191953679303</v>
+        <v>7.459765194082397</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.679142742740411</v>
+        <v>2.095071091342968</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>28.10173183401605</v>
+        <v>18.94428337620377</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.24114446920346</v>
+        <v>13.66973246435129</v>
       </c>
       <c r="L11">
-        <v>10.25930167117705</v>
+        <v>6.862672876057331</v>
       </c>
       <c r="M11">
-        <v>14.26829319093997</v>
+        <v>10.9268535347922</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>28.80746056776778</v>
+        <v>20.53221512168541</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.8839347812833</v>
+        <v>16.47819172468869</v>
       </c>
       <c r="C12">
-        <v>7.835466522965824</v>
+        <v>8.172278867381197</v>
       </c>
       <c r="D12">
-        <v>6.601302703922871</v>
+        <v>9.146790459392815</v>
       </c>
       <c r="E12">
-        <v>11.93708060232623</v>
+        <v>7.462886310800974</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.678631240126395</v>
+        <v>2.093523853463203</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>28.08658684824587</v>
+        <v>18.95214138555546</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.28741611296889</v>
+        <v>13.82661164307089</v>
       </c>
       <c r="L12">
-        <v>10.25946499383342</v>
+        <v>6.892571513781642</v>
       </c>
       <c r="M12">
-        <v>14.28020597454901</v>
+        <v>11.01935658623819</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>28.79858703598794</v>
+        <v>20.58408235234616</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.87046313626236</v>
+        <v>16.43350615292929</v>
       </c>
       <c r="C13">
-        <v>7.831421642528241</v>
+        <v>8.160985745414125</v>
       </c>
       <c r="D13">
-        <v>6.59363930933287</v>
+        <v>9.121159353868872</v>
       </c>
       <c r="E13">
-        <v>11.9381133585723</v>
+        <v>7.462188466991744</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.678740963336358</v>
+        <v>2.093856585189114</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>28.08981661179136</v>
+        <v>18.95033219195201</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.27745802753521</v>
+        <v>13.79295763085506</v>
       </c>
       <c r="L13">
-        <v>10.25942050605775</v>
+        <v>6.886117534113369</v>
       </c>
       <c r="M13">
-        <v>14.2776274535066</v>
+        <v>10.99946506422364</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>28.80046137418482</v>
+        <v>20.57278638731194</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.82648251180933</v>
+        <v>16.2870445605148</v>
       </c>
       <c r="C14">
-        <v>7.818198296247303</v>
+        <v>8.124066881641811</v>
       </c>
       <c r="D14">
-        <v>6.568624795826768</v>
+        <v>9.037180330250775</v>
       </c>
       <c r="E14">
-        <v>11.94151720074471</v>
+        <v>7.460010437581355</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.67910046365596</v>
+        <v>2.094943575308081</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>28.10047143765797</v>
+        <v>18.94487742330318</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.24495451149713</v>
+        <v>13.68269884729377</v>
       </c>
       <c r="L14">
-        <v>10.25931090972747</v>
+        <v>6.865125985469041</v>
       </c>
       <c r="M14">
-        <v>14.26926744473804</v>
+        <v>10.93447755554759</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>28.80671398465523</v>
+        <v>20.53642590747582</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.79950832562919</v>
+        <v>16.19676886527369</v>
       </c>
       <c r="C15">
-        <v>7.810074042517864</v>
+        <v>8.101384348585473</v>
       </c>
       <c r="D15">
-        <v>6.55328604835088</v>
+        <v>8.98544001223167</v>
       </c>
       <c r="E15">
-        <v>11.9436296673003</v>
+        <v>7.458751123795889</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.679321951423141</v>
+        <v>2.095610849946268</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>28.10709144889467</v>
+        <v>18.94187585514769</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.22502439703316</v>
+        <v>13.61477317802193</v>
       </c>
       <c r="L15">
-        <v>10.25927106493503</v>
+        <v>6.852311459399794</v>
       </c>
       <c r="M15">
-        <v>14.26418455371543</v>
+        <v>10.89458197153253</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>28.81065143787815</v>
+        <v>20.51451948085772</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.64444187339383</v>
+        <v>15.6707505999341</v>
       </c>
       <c r="C16">
-        <v>7.763144891859598</v>
+        <v>7.970353984615997</v>
       </c>
       <c r="D16">
-        <v>6.465158868069519</v>
+        <v>8.684297563727885</v>
       </c>
       <c r="E16">
-        <v>11.95615732814931</v>
+        <v>7.452666406129743</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.680610916538254</v>
+        <v>2.099457843645869</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>28.14646217784228</v>
+        <v>18.92977321357676</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.11052674338369</v>
+        <v>13.21954288380642</v>
       </c>
       <c r="L16">
-        <v>10.25946161827217</v>
+        <v>6.779548406578701</v>
       </c>
       <c r="M16">
-        <v>14.23564166533658</v>
+        <v>10.66463758368038</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>28.83486297946318</v>
+        <v>20.39450145598229</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.54892751895391</v>
+        <v>15.3402585563784</v>
       </c>
       <c r="C17">
-        <v>7.73402784442538</v>
+        <v>7.889045854066914</v>
       </c>
       <c r="D17">
-        <v>6.410924102892334</v>
+        <v>8.495384237907405</v>
       </c>
       <c r="E17">
-        <v>11.96421943000912</v>
+        <v>7.449928038923803</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.681419280842821</v>
+        <v>2.101839223447668</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>28.17189358035128</v>
+        <v>18.92678189874167</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.04006622255331</v>
+        <v>12.97173668467085</v>
       </c>
       <c r="L17">
-        <v>10.25995299812351</v>
+        <v>6.735517396269468</v>
       </c>
       <c r="M17">
-        <v>14.21865884370413</v>
+        <v>10.52244700796536</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>28.85118516383305</v>
+        <v>20.32570908557793</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.4938683065208</v>
+        <v>15.14728446120965</v>
       </c>
       <c r="C18">
-        <v>7.717162007073703</v>
+        <v>7.841943160797596</v>
       </c>
       <c r="D18">
-        <v>6.379679157070625</v>
+        <v>8.385180461758482</v>
       </c>
       <c r="E18">
-        <v>11.96899510632954</v>
+        <v>7.448712303535637</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.681890723957734</v>
+        <v>2.103217074827359</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>28.18699059355144</v>
+        <v>18.92664506870054</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.999472652214122</v>
+        <v>12.82723648303765</v>
       </c>
       <c r="L18">
-        <v>10.26037351544443</v>
+        <v>6.710417852451386</v>
       </c>
       <c r="M18">
-        <v>14.20908659038579</v>
+        <v>10.44026950383708</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>28.86111275358563</v>
+        <v>20.28788243930941</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.47520719922969</v>
+        <v>15.08144972174012</v>
       </c>
       <c r="C19">
-        <v>7.711431355513651</v>
+        <v>7.825937602247915</v>
       </c>
       <c r="D19">
-        <v>6.369092682958204</v>
+        <v>8.347600685489523</v>
       </c>
       <c r="E19">
-        <v>11.97063587693199</v>
+        <v>7.448361808276664</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.682051463243476</v>
+        <v>2.103685017320375</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>28.19218278978325</v>
+        <v>18.92686646510243</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.985718311021122</v>
+        <v>12.77797276000631</v>
       </c>
       <c r="L19">
-        <v>10.26053960238884</v>
+        <v>6.7019586645408</v>
       </c>
       <c r="M19">
-        <v>14.205879410435</v>
+        <v>10.41238017951075</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>28.86456668214426</v>
+        <v>20.2753705597575</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.5591082560788</v>
+        <v>15.37573804966566</v>
       </c>
       <c r="C20">
-        <v>7.737139709070622</v>
+        <v>7.897736148636994</v>
       </c>
       <c r="D20">
-        <v>6.416703003268691</v>
+        <v>8.515654091051145</v>
       </c>
       <c r="E20">
-        <v>11.96334686641756</v>
+        <v>7.450182218749283</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.681332557404247</v>
+        <v>2.101584884975942</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>28.16913775928593</v>
+        <v>18.92693540372376</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.04757407738669</v>
+        <v>12.99831974104123</v>
       </c>
       <c r="L20">
-        <v>10.2598864248276</v>
+        <v>6.740181256800243</v>
       </c>
       <c r="M20">
-        <v>14.2204464729186</v>
+        <v>10.53762463034626</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>28.84939179312794</v>
+        <v>20.33285116029611</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.83940804243884</v>
+        <v>16.33018125695652</v>
       </c>
       <c r="C21">
-        <v>7.82208744464635</v>
+        <v>8.134925170306994</v>
       </c>
       <c r="D21">
-        <v>6.57597569781974</v>
+        <v>9.06190960669586</v>
       </c>
       <c r="E21">
-        <v>11.94051167627855</v>
+        <v>7.46063455623422</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.678994602317318</v>
+        <v>2.094623997041517</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>28.09732234409107</v>
+        <v>18.94640858261346</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.25450598727996</v>
+        <v>13.71516555251606</v>
       </c>
       <c r="L21">
-        <v>10.25933741604684</v>
+        <v>6.871282682320214</v>
       </c>
       <c r="M21">
-        <v>14.2717151046585</v>
+        <v>10.95358457931171</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>28.8048550264049</v>
+        <v>20.54702951367269</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.02109662157467</v>
+        <v>16.92868323747624</v>
       </c>
       <c r="C22">
-        <v>7.876510946251816</v>
+        <v>8.286877768644928</v>
       </c>
       <c r="D22">
-        <v>6.679358348161095</v>
+        <v>9.405424625183619</v>
       </c>
       <c r="E22">
-        <v>11.92681933535089</v>
+        <v>7.470796692514013</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.677524099884735</v>
+        <v>2.090140871984053</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>28.05457612074458</v>
+        <v>18.97421352298344</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.38885632560118</v>
+        <v>14.16624285735227</v>
       </c>
       <c r="L22">
-        <v>10.26020060613936</v>
+        <v>6.958915578985189</v>
       </c>
       <c r="M22">
-        <v>14.30692197929633</v>
+        <v>11.27978471192527</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>28.78056021911172</v>
+        <v>20.70326669680939</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.9242832440167</v>
+        <v>16.61154502038957</v>
       </c>
       <c r="C23">
-        <v>7.847566159368147</v>
+        <v>8.206060798452578</v>
       </c>
       <c r="D23">
-        <v>6.62425840985668</v>
+        <v>9.223305494593067</v>
       </c>
       <c r="E23">
-        <v>11.93401459483323</v>
+        <v>7.465061749574513</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.678303690894126</v>
+        <v>2.092527859526475</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>28.07700688597869</v>
+        <v>18.95794593532755</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.31724672695394</v>
+        <v>13.92708206450568</v>
       </c>
       <c r="L23">
-        <v>10.25962839282678</v>
+        <v>6.911968630611118</v>
       </c>
       <c r="M23">
-        <v>14.28797805377264</v>
+        <v>11.08194093250773</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>28.79308611083156</v>
+        <v>20.61835603180674</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.55450599714422</v>
+        <v>15.35970702542341</v>
       </c>
       <c r="C24">
-        <v>7.735733227291589</v>
+        <v>7.893808379346215</v>
       </c>
       <c r="D24">
-        <v>6.414090560857204</v>
+        <v>8.506495061438311</v>
       </c>
       <c r="E24">
-        <v>11.96374091423681</v>
+        <v>7.450066188574684</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.681371744185666</v>
+        <v>2.101699844031482</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>28.17038218283504</v>
+        <v>18.92686108441968</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.04418003721098</v>
+        <v>12.98630787497416</v>
       </c>
       <c r="L24">
-        <v>10.25991609264575</v>
+        <v>6.738072056730046</v>
       </c>
       <c r="M24">
-        <v>14.2196376890883</v>
+        <v>10.53076416245139</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>28.85020088234366</v>
+        <v>20.32961686999604</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.1512548723467</v>
+        <v>13.89892421570696</v>
       </c>
       <c r="C25">
-        <v>7.610598136257184</v>
+        <v>7.544205216651736</v>
       </c>
       <c r="D25">
-        <v>6.185630404282366</v>
+        <v>7.67405104200022</v>
       </c>
       <c r="E25">
-        <v>12.00110450020864</v>
+        <v>7.447552948368857</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.684929601120964</v>
+        <v>2.111907917535382</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>28.28904873106398</v>
+        <v>18.95333323478938</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.747281663382937</v>
+        <v>11.89627181826002</v>
       </c>
       <c r="L25">
-        <v>10.26550079800168</v>
+        <v>6.559172332902631</v>
       </c>
       <c r="M25">
-        <v>14.15343048193831</v>
+        <v>9.92483277753257</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>28.93242717970074</v>
+        <v>20.08424785015136</v>
       </c>
     </row>
   </sheetData>
